--- a/database layout.xlsx
+++ b/database layout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Users</t>
   </si>
@@ -51,14 +51,77 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>subgroup</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>harcode</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,13 +146,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,88 +537,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="13"/>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>13</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database layout.xlsx
+++ b/database layout.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database layout.xlsx
+++ b/database layout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Users</t>
   </si>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,19 +841,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
         <v>12</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="3">
-        <v>13</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
